--- a/Stock_Original.xlsx
+++ b/Stock_Original.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegoalvrezz/Desktop/CUARTO_ING_SALUD/prac_lab/stock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\71293763l\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94A19A04-11CD-2D4A-A5D1-0A86377514D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17980"/>
   </bookViews>
   <sheets>
     <sheet name="FOCUS" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="89">
   <si>
     <t>Ref. Saturno</t>
   </si>
@@ -286,13 +285,16 @@
   </si>
   <si>
     <t>A27766</t>
+  </si>
+  <si>
+    <t>Stock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +316,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -329,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -352,17 +362,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,23 +481,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -508,23 +516,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -700,26 +691,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,26 +726,29 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>64887</v>
       </c>
@@ -765,7 +759,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>64887</v>
       </c>
@@ -782,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>64887</v>
       </c>
@@ -799,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>64887</v>
       </c>
@@ -816,7 +810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>64887</v>
       </c>
@@ -833,7 +827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>64887</v>
       </c>
@@ -850,7 +844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>64887</v>
       </c>
@@ -867,7 +861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>64936</v>
       </c>
@@ -878,7 +872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>64936</v>
       </c>
@@ -895,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>64936</v>
       </c>
@@ -912,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>64936</v>
       </c>
@@ -928,8 +922,9 @@
       <c r="E12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>64936</v>
       </c>
@@ -946,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>64936</v>
       </c>
@@ -963,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>64933</v>
       </c>
@@ -974,7 +969,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>64933</v>
       </c>
@@ -991,7 +986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>64966</v>
       </c>
@@ -1002,7 +997,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>64966</v>
       </c>
@@ -1019,7 +1014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>64966</v>
       </c>
@@ -1036,7 +1031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>64966</v>
       </c>
@@ -1053,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>64966</v>
       </c>
@@ -1070,7 +1065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>64939</v>
       </c>
@@ -1087,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>64895</v>
       </c>
@@ -1104,7 +1099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>34896</v>
       </c>
@@ -1121,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>34896</v>
       </c>
@@ -1138,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>64897</v>
       </c>
@@ -1155,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>65366</v>
       </c>
@@ -1172,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>64921</v>
       </c>
@@ -1189,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>65377</v>
       </c>
@@ -1209,25 +1204,26 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="F1" sqref="F1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1243,26 +1239,29 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>64889</v>
       </c>
@@ -1273,7 +1272,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>64889</v>
       </c>
@@ -1290,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>64889</v>
       </c>
@@ -1307,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>64889</v>
       </c>
@@ -1324,7 +1323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>64889</v>
       </c>
@@ -1341,7 +1340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>64889</v>
       </c>
@@ -1358,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>64889</v>
       </c>
@@ -1375,7 +1374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>64934</v>
       </c>
@@ -1386,7 +1385,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>64934</v>
       </c>
@@ -1403,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>64934</v>
       </c>
@@ -1420,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>64934</v>
       </c>
@@ -1437,7 +1436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>64934</v>
       </c>
@@ -1454,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>64934</v>
       </c>
@@ -1471,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>64910</v>
       </c>
@@ -1482,7 +1481,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>64910</v>
       </c>
@@ -1499,7 +1498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>64966</v>
       </c>
@@ -1510,7 +1509,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>64966</v>
       </c>
@@ -1527,7 +1526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>64966</v>
       </c>
@@ -1544,7 +1543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>64966</v>
       </c>
@@ -1561,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>64966</v>
       </c>
@@ -1578,7 +1577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>67460</v>
       </c>
@@ -1595,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>64895</v>
       </c>
@@ -1612,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>34896</v>
       </c>
@@ -1629,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>34896</v>
       </c>
@@ -1646,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>64897</v>
       </c>
@@ -1663,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>65366</v>
       </c>
@@ -1680,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>64921</v>
       </c>
@@ -1697,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>65377</v>
       </c>
@@ -1721,25 +1720,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1755,26 +1754,29 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>49669</v>
       </c>
@@ -1785,7 +1787,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>49669</v>
       </c>
@@ -1802,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>49669</v>
       </c>
@@ -1816,7 +1818,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>49669</v>
       </c>
@@ -1833,7 +1835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>49669</v>
       </c>
@@ -1850,7 +1852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>49669</v>
       </c>
@@ -1867,7 +1869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>49669</v>
       </c>
@@ -1884,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>34545</v>
       </c>
@@ -1895,7 +1897,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>34545</v>
       </c>
@@ -1912,7 +1914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>34545</v>
       </c>
@@ -1929,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>34545</v>
       </c>
@@ -1946,7 +1948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>34545</v>
       </c>
@@ -1963,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>34545</v>
       </c>
@@ -1980,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>34538</v>
       </c>
@@ -1997,7 +1999,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>64966</v>
       </c>
@@ -2008,7 +2010,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>64966</v>
       </c>
@@ -2025,7 +2027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>64966</v>
       </c>
@@ -2042,7 +2044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>64966</v>
       </c>
@@ -2059,7 +2061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>64966</v>
       </c>
@@ -2076,7 +2078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>64895</v>
       </c>
@@ -2093,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>34896</v>
       </c>
@@ -2110,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>34896</v>
       </c>
@@ -2127,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>64897</v>
       </c>
@@ -2144,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>65366</v>
       </c>
@@ -2161,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>64921</v>
       </c>
@@ -2178,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>65377</v>
       </c>

--- a/Stock_Original.xlsx
+++ b/Stock_Original.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\71293763l\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\712937~1\AppData\Local\Temp\MicrosoftEdgeDownloads\d91e25cd-eea4-4ef9-bd1c-ede3fe3a7791\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FOCUS" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="88">
   <si>
     <t>Ref. Saturno</t>
   </si>
@@ -272,22 +272,19 @@
     <t>Q32853</t>
   </si>
   <si>
-    <t>A27763</t>
-  </si>
-  <si>
-    <t>AM1976</t>
-  </si>
-  <si>
     <t>A42008</t>
   </si>
   <si>
     <t>Panel Oncomine Focus Library Assay Chef Ready</t>
   </si>
   <si>
-    <t>A27766</t>
-  </si>
-  <si>
     <t>Stock</t>
+  </si>
+  <si>
+    <t>A49669</t>
+  </si>
+  <si>
+    <t>A34541</t>
   </si>
 </sst>
 </file>
@@ -377,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -388,6 +385,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -727,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -753,10 +751,10 @@
         <v>64887</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -973,8 +971,8 @@
       <c r="A16">
         <v>64933</v>
       </c>
-      <c r="B16" t="s">
-        <v>83</v>
+      <c r="B16" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -1019,7 +1017,7 @@
         <v>64966</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -1120,8 +1118,8 @@
       <c r="A25">
         <v>34896</v>
       </c>
-      <c r="B25" t="s">
-        <v>82</v>
+      <c r="B25" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
@@ -1213,7 +1211,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:L1"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1240,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1485,8 +1483,8 @@
       <c r="A16">
         <v>64910</v>
       </c>
-      <c r="B16" t="s">
-        <v>87</v>
+      <c r="B16" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1531,7 +1529,7 @@
         <v>64966</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -1723,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1755,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1781,7 +1779,7 @@
         <v>49669</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>76</v>
@@ -1891,7 +1889,7 @@
         <v>34545</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>68</v>
@@ -2010,7 +2008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>64966</v>
       </c>
@@ -2027,12 +2025,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>64966</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
@@ -2044,7 +2042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>64966</v>
       </c>
@@ -2061,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>64966</v>
       </c>
@@ -2078,7 +2076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>64895</v>
       </c>
@@ -2094,8 +2092,9 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>34896</v>
       </c>
@@ -2112,12 +2111,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>34896</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>54</v>
@@ -2129,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>64897</v>
       </c>
@@ -2146,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>65366</v>
       </c>
@@ -2163,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>64921</v>
       </c>
@@ -2180,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>65377</v>
       </c>

--- a/Stock_Original.xlsx
+++ b/Stock_Original.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\712937~1\AppData\Local\Temp\MicrosoftEdgeDownloads\d91e25cd-eea4-4ef9-bd1c-ede3fe3a7791\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegoalvrezz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063A54B7-3E5C-A44C-A6EA-563C2B89D660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17980" activeTab="2"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOCUS" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="87">
   <si>
     <t>Ref. Saturno</t>
   </si>
@@ -264,9 +265,6 @@
   </si>
   <si>
     <t>Chip secuenciación Ion 550 TM Chip Kit</t>
-  </si>
-  <si>
-    <t>1 de 4</t>
   </si>
   <si>
     <t>Q32853</t>
@@ -290,7 +288,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,18 +372,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,6 +476,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -514,6 +528,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,26 +720,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -746,18 +777,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>64887</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>64887</v>
       </c>
@@ -774,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>64887</v>
       </c>
@@ -791,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>64887</v>
       </c>
@@ -808,7 +839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>64887</v>
       </c>
@@ -825,7 +856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>64887</v>
       </c>
@@ -842,7 +873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>64887</v>
       </c>
@@ -859,7 +890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>64936</v>
       </c>
@@ -870,7 +901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>64936</v>
       </c>
@@ -887,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>64936</v>
       </c>
@@ -904,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>64936</v>
       </c>
@@ -922,7 +953,7 @@
       </c>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>64936</v>
       </c>
@@ -939,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>64936</v>
       </c>
@@ -956,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>64933</v>
       </c>
@@ -967,11 +998,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>64933</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
@@ -984,7 +1015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>64966</v>
       </c>
@@ -995,7 +1026,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>64966</v>
       </c>
@@ -1012,7 +1043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>64966</v>
       </c>
@@ -1029,7 +1060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>64966</v>
       </c>
@@ -1046,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>64966</v>
       </c>
@@ -1063,7 +1094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>64939</v>
       </c>
@@ -1080,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>64895</v>
       </c>
@@ -1097,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>34896</v>
       </c>
@@ -1114,11 +1145,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>34896</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="s">
@@ -1131,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>64897</v>
       </c>
@@ -1148,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>65366</v>
       </c>
@@ -1165,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>64921</v>
       </c>
@@ -1182,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>65377</v>
       </c>
@@ -1207,21 +1238,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1269,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1259,7 +1290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>64889</v>
       </c>
@@ -1270,7 +1301,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>64889</v>
       </c>
@@ -1287,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>64889</v>
       </c>
@@ -1304,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>64889</v>
       </c>
@@ -1321,7 +1352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>64889</v>
       </c>
@@ -1338,7 +1369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>64889</v>
       </c>
@@ -1355,7 +1386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>64889</v>
       </c>
@@ -1372,7 +1403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>64934</v>
       </c>
@@ -1383,7 +1414,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>64934</v>
       </c>
@@ -1400,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>64934</v>
       </c>
@@ -1417,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>64934</v>
       </c>
@@ -1434,7 +1465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>64934</v>
       </c>
@@ -1451,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>64934</v>
       </c>
@@ -1468,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>64910</v>
       </c>
@@ -1479,11 +1510,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>64910</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" t="s">
         <v>66</v>
       </c>
       <c r="C16" t="s">
@@ -1496,7 +1527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>64966</v>
       </c>
@@ -1507,7 +1538,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>64966</v>
       </c>
@@ -1524,7 +1555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>64966</v>
       </c>
@@ -1541,7 +1572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>64966</v>
       </c>
@@ -1558,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>64966</v>
       </c>
@@ -1575,7 +1606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>67460</v>
       </c>
@@ -1592,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>64895</v>
       </c>
@@ -1609,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>34896</v>
       </c>
@@ -1626,12 +1657,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>34896</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
@@ -1643,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>64897</v>
       </c>
@@ -1660,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>65366</v>
       </c>
@@ -1677,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>64921</v>
       </c>
@@ -1694,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>65377</v>
       </c>
@@ -1718,25 +1749,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +1784,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1774,18 +1805,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>49669</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>49669</v>
       </c>
@@ -1802,7 +1833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>49669</v>
       </c>
@@ -1816,7 +1847,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>49669</v>
       </c>
@@ -1833,7 +1864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>49669</v>
       </c>
@@ -1850,7 +1881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>49669</v>
       </c>
@@ -1867,7 +1898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>49669</v>
       </c>
@@ -1884,18 +1915,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>34545</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>34545</v>
       </c>
@@ -1912,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>34545</v>
       </c>
@@ -1929,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>34545</v>
       </c>
@@ -1946,7 +1977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>34545</v>
       </c>
@@ -1963,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>34545</v>
       </c>
@@ -1980,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>34538</v>
       </c>
@@ -1993,11 +2024,11 @@
       <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>64966</v>
       </c>
@@ -2008,7 +2039,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>64966</v>
       </c>
@@ -2025,7 +2056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>64966</v>
       </c>
@@ -2042,7 +2073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>64966</v>
       </c>
@@ -2059,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>64966</v>
       </c>
@@ -2076,7 +2107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>64895</v>
       </c>
@@ -2094,7 +2125,7 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>34896</v>
       </c>
@@ -2111,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>34896</v>
       </c>
@@ -2128,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>64897</v>
       </c>
@@ -2145,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>65366</v>
       </c>
@@ -2162,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>64921</v>
       </c>
@@ -2179,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>65377</v>
       </c>

--- a/Stock_Original.xlsx
+++ b/Stock_Original.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegoalvrezz/Desktop/CUARTO_ING_SALUD/prac_lab/stock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegoalvrezz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B79D17F-70A7-1149-8FFC-88345C0A4C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33D3FD0F-06A1-AC48-AC16-1703D8674A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="88">
   <si>
     <t>Ref. Saturno</t>
   </si>
@@ -265,9 +265,6 @@
   </si>
   <si>
     <t>Chip secuenciación Ion 550 TM Chip Kit</t>
-  </si>
-  <si>
-    <t>1 de 4</t>
   </si>
   <si>
     <t>Q32853</t>
@@ -762,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -788,10 +785,10 @@
         <v>64887</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1009,7 +1006,7 @@
         <v>64933</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -1054,7 +1051,7 @@
         <v>64966</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -1156,7 +1153,7 @@
         <v>34896</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
@@ -1275,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1521,7 +1518,7 @@
         <v>64910</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1566,7 +1563,7 @@
         <v>64966</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -1668,7 +1665,7 @@
         <v>34896</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
@@ -1759,7 +1756,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1790,7 +1787,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2033,8 +2030,8 @@
       <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
-        <v>81</v>
+      <c r="E15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2070,7 +2067,7 @@
         <v>64966</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
@@ -2155,7 +2152,7 @@
         <v>34896</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
         <v>54</v>

--- a/Stock_Original.xlsx
+++ b/Stock_Original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegoalvrezz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33D3FD0F-06A1-AC48-AC16-1703D8674A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{592602F7-B17F-E140-B7C2-6379D0922792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="90">
   <si>
     <t>Ref. Saturno</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>Stock</t>
+  </si>
+  <si>
+    <t>A49669</t>
+  </si>
+  <si>
+    <t>A34541</t>
   </si>
 </sst>
 </file>
@@ -1756,7 +1762,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1809,20 +1815,15 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>49669</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>49669</v>
-      </c>
       <c r="B3" t="s">
         <v>72</v>
       </c>
@@ -1837,11 +1838,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>49669</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
+      <c r="B4">
+        <v>78310</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
@@ -1854,9 +1852,6 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>49669</v>
-      </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -1871,9 +1866,6 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>49669</v>
-      </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -1888,9 +1880,6 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>49669</v>
-      </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -1905,9 +1894,6 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>49669</v>
-      </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1922,20 +1908,15 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>34545</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>34545</v>
-      </c>
       <c r="B10" t="s">
         <v>73</v>
       </c>
@@ -1950,9 +1931,6 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>34545</v>
-      </c>
       <c r="B11" t="s">
         <v>74</v>
       </c>
@@ -1967,9 +1945,6 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>34545</v>
-      </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -1984,9 +1959,6 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>34545</v>
-      </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -2001,9 +1973,6 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>34545</v>
-      </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -2019,7 +1988,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>34538</v>
+        <v>64935</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
